--- a/results_analysis/ksom_motorFailure_02_hold_01.xlsx
+++ b/results_analysis/ksom_motorFailure_02_hold_01.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416DD471-2BCE-4E4C-B4F9-59057231E340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C70F77-92FF-4981-AA7D-B5D480F2205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FE0D8406-1939-42F0-B5EC-F1A66084C35D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{FE0D8406-1939-42F0-B5EC-F1A66084C35D}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_hp_best" sheetId="1" r:id="rId1"/>
     <sheet name="acc_mean" sheetId="2" r:id="rId2"/>
     <sheet name="acc_median" sheetId="5" r:id="rId3"/>
-    <sheet name="MCC" sheetId="3" r:id="rId4"/>
-    <sheet name="F1S" sheetId="4" r:id="rId5"/>
+    <sheet name="acc_std" sheetId="6" r:id="rId4"/>
+    <sheet name="MCC" sheetId="3" r:id="rId5"/>
+    <sheet name="F1S" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="19">
   <si>
     <t>Algorithm</t>
   </si>
@@ -104,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -460,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,19 +478,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
@@ -498,22 +499,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -531,120 +532,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -983,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A889A0D-6079-4851-A2AA-AD4BB1CBB64D}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1213,356 +1191,354 @@
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="40" t="s">
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="40" t="s">
+      <c r="I11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="41" t="s">
+      <c r="K11" s="49"/>
+      <c r="L11" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="42"/>
-      <c r="N11" s="41" t="s">
+      <c r="M11" s="49"/>
+      <c r="N11" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="43"/>
+      <c r="O11" s="50"/>
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="47" t="s">
+      <c r="G12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="J12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="47" t="s">
+      <c r="K12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="47" t="s">
+      <c r="L12" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="47" t="s">
+      <c r="M12" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="47" t="s">
+      <c r="N12" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="48" t="s">
+      <c r="O12" s="37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="38">
         <v>256</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="39">
         <v>512</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="39">
         <v>9.765625E-4</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="39">
         <v>512</v>
       </c>
-      <c r="G13" s="52">
+      <c r="G13" s="39">
         <v>0.2</v>
       </c>
-      <c r="H13" s="52">
+      <c r="H13" s="39">
         <v>8</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="39">
         <v>128</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="39">
         <v>2.6</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="39">
         <v>128</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="39">
         <v>3.125E-2</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M13" s="39">
         <v>-4</v>
       </c>
-      <c r="N13" s="52">
+      <c r="N13" s="39">
         <v>3.125E-2</v>
       </c>
-      <c r="O13" s="53">
+      <c r="O13" s="4">
         <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="40">
         <v>6.25E-2</v>
       </c>
-      <c r="D14" s="57">
+      <c r="D14" s="41">
         <v>256</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="41">
         <v>0.125</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="41">
         <v>256</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="41">
         <v>0.8</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="41">
         <v>128</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="41">
         <v>16</v>
       </c>
-      <c r="J14" s="57">
+      <c r="J14" s="41">
         <v>0.6</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="41">
         <v>0.5</v>
       </c>
-      <c r="L14" s="57">
+      <c r="L14" s="41">
         <v>6.25E-2</v>
       </c>
-      <c r="M14" s="57">
+      <c r="M14" s="41">
         <v>-1</v>
       </c>
-      <c r="N14" s="57">
+      <c r="N14" s="41">
         <v>1</v>
       </c>
-      <c r="O14" s="58">
+      <c r="O14" s="42">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="40">
         <v>4</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="41">
         <v>256</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="41">
         <v>3.90625E-3</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="41">
         <v>32</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="41">
         <v>0.2</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="41">
         <v>512</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="41">
         <v>512</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="41">
         <v>0.4</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="41">
         <v>256</v>
       </c>
-      <c r="L15" s="57">
+      <c r="L15" s="41">
         <v>3.90625E-3</v>
       </c>
-      <c r="M15" s="57">
+      <c r="M15" s="41">
         <v>-4</v>
       </c>
-      <c r="N15" s="57">
+      <c r="N15" s="41">
         <v>0.25</v>
       </c>
-      <c r="O15" s="58">
+      <c r="O15" s="42">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="40">
         <v>256</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="41">
         <v>512</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="41">
         <v>9.765625E-4</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="41">
         <v>512</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="41">
         <v>0.2</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="41">
         <v>8</v>
       </c>
-      <c r="I16" s="57">
+      <c r="I16" s="41">
         <v>4</v>
       </c>
-      <c r="J16" s="57">
+      <c r="J16" s="41">
         <v>0.6</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="41">
         <v>128</v>
       </c>
-      <c r="L16" s="57">
+      <c r="L16" s="41">
         <v>3.125E-2</v>
       </c>
-      <c r="M16" s="57">
+      <c r="M16" s="41">
         <v>-1024</v>
       </c>
-      <c r="N16" s="57">
+      <c r="N16" s="41">
         <v>256</v>
       </c>
-      <c r="O16" s="58">
+      <c r="O16" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="40">
         <v>4</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="41">
         <v>512</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="41">
         <v>0.5</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="41">
         <v>16</v>
       </c>
-      <c r="G17" s="57">
+      <c r="G17" s="41">
         <v>0.2</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="41">
         <v>4</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="41">
         <v>128</v>
       </c>
-      <c r="J17" s="57">
+      <c r="J17" s="41">
         <v>0.4</v>
       </c>
-      <c r="K17" s="57">
+      <c r="K17" s="41">
         <v>1</v>
       </c>
-      <c r="L17" s="57">
+      <c r="L17" s="41">
         <v>0.5</v>
       </c>
-      <c r="M17" s="57">
+      <c r="M17" s="41">
         <v>256</v>
       </c>
-      <c r="N17" s="57">
+      <c r="N17" s="41">
         <v>8</v>
       </c>
-      <c r="O17" s="58">
+      <c r="O17" s="42">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="43">
         <v>4</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="44">
         <v>128</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="44">
         <v>1.5625E-2</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="44">
         <v>4</v>
       </c>
-      <c r="G18" s="62">
+      <c r="G18" s="44">
         <v>2.4</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="44">
         <v>32</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="44">
         <v>512</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="44">
         <v>1</v>
       </c>
-      <c r="K18" s="62">
+      <c r="K18" s="44">
         <v>512</v>
       </c>
-      <c r="L18" s="62">
+      <c r="L18" s="44">
         <v>6.25E-2</v>
       </c>
-      <c r="M18" s="62">
+      <c r="M18" s="44">
         <v>-1024</v>
       </c>
-      <c r="N18" s="62">
+      <c r="N18" s="44">
         <v>1024</v>
       </c>
-      <c r="O18" s="63">
+      <c r="O18" s="45">
         <v>1024</v>
       </c>
     </row>
@@ -1868,28 +1844,28 @@
       <c r="B3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="26">
         <v>0.74013157894736803</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="6">
         <v>0.73684210526315796</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="6">
         <v>0.73684210526315796</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="26">
         <v>0.75</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="6">
         <v>0.73355263157894701</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="6">
         <v>0.73684210526315796</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="6">
         <v>0.72697368421052599</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="27">
         <v>0.75</v>
       </c>
     </row>
@@ -1898,28 +1874,28 @@
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="29">
         <v>0.69078947368421095</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="29">
         <v>0.69407894736842102</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="29">
         <v>0.73026315789473695</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="8">
         <v>0.64473684210526305</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="8">
         <v>0.67763157894736903</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="29">
         <v>0.69078947368421095</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="8">
         <v>0.68092105263157898</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="9">
         <v>0.64473684210526305</v>
       </c>
     </row>
@@ -1928,28 +1904,28 @@
       <c r="B5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="8">
         <v>0.69736842105263197</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="29">
         <v>0.72039473684210498</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="8">
         <v>0.71710526315789502</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="29">
         <v>0.73684210526315796</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="8">
         <v>0.71052631578947401</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="29">
         <v>0.72039473684210498</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="8">
         <v>0.70065789473684204</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="9">
         <v>0.70723684210526305</v>
       </c>
     </row>
@@ -1960,28 +1936,28 @@
       <c r="B6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="29">
         <v>0.74013157894736803</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="29">
         <v>0.73684210526315796</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="29">
         <v>0.73684210526315796</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="29">
         <v>0.75</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="8">
         <v>0.72368421052631604</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="8">
         <v>0.71052631578947401</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="8">
         <v>0.73355263157894701</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="9">
         <v>0.73026315789473695</v>
       </c>
     </row>
@@ -1990,28 +1966,28 @@
       <c r="B7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="29">
         <v>0.70723684210526305</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="29">
         <v>0.70723684210526305</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="8">
         <v>0.70394736842105299</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="29">
         <v>0.74013157894736803</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="8">
         <v>0.70723684210526305</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="8">
         <v>0.69407894736842102</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="8">
         <v>0.69736842105263197</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="9">
         <v>0.69736842105263197</v>
       </c>
     </row>
@@ -2020,28 +1996,28 @@
       <c r="B8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="10">
         <v>0.69736842105263197</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="10">
         <v>0.70394736842105299</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="33">
         <v>0.72039473684210498</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="10">
         <v>0.69736842105263197</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="10">
         <v>0.70065789473684204</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="10">
         <v>0.70723684210526305</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="33">
         <v>0.72039473684210498</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="32">
         <v>0.73026315789473695</v>
       </c>
     </row>
@@ -2051,6 +2027,242 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3529DD2C-CC94-475B-B02F-091244A7C6A3}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="51">
+        <v>3.9571030065403398E-2</v>
+      </c>
+      <c r="D3" s="51">
+        <v>3.3696372530273702E-2</v>
+      </c>
+      <c r="E3" s="51">
+        <v>2.9787451112294101E-2</v>
+      </c>
+      <c r="F3" s="51">
+        <v>2.63978982207091E-2</v>
+      </c>
+      <c r="G3" s="51">
+        <v>2.89274253470897E-2</v>
+      </c>
+      <c r="H3" s="51">
+        <v>4.5070991504088102E-2</v>
+      </c>
+      <c r="I3" s="51">
+        <v>4.8449529193168701E-2</v>
+      </c>
+      <c r="J3" s="52">
+        <v>2.3455687644071799E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="53">
+        <v>3.9891791540586898E-2</v>
+      </c>
+      <c r="D4" s="53">
+        <v>3.71902928521054E-2</v>
+      </c>
+      <c r="E4" s="53">
+        <v>1.9230843217889301E-2</v>
+      </c>
+      <c r="F4" s="53">
+        <v>3.8865935494057702E-2</v>
+      </c>
+      <c r="G4" s="53">
+        <v>3.2792237969331103E-2</v>
+      </c>
+      <c r="H4" s="53">
+        <v>4.4100217439471602E-2</v>
+      </c>
+      <c r="I4" s="53">
+        <v>0.15376544956872201</v>
+      </c>
+      <c r="J4" s="54">
+        <v>3.9081876157799102E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25"/>
+      <c r="B5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="53">
+        <v>4.6130885894654902E-2</v>
+      </c>
+      <c r="D5" s="53">
+        <v>4.8785850909866202E-2</v>
+      </c>
+      <c r="E5" s="53">
+        <v>5.6547488874391101E-2</v>
+      </c>
+      <c r="F5" s="53">
+        <v>1.9429874064330398E-2</v>
+      </c>
+      <c r="G5" s="53">
+        <v>3.2527186346910798E-2</v>
+      </c>
+      <c r="H5" s="53">
+        <v>3.5060296301248003E-2</v>
+      </c>
+      <c r="I5" s="53">
+        <v>4.1498970013213399E-2</v>
+      </c>
+      <c r="J5" s="54">
+        <v>4.0915434638143497E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="53">
+        <v>3.8989476605029397E-2</v>
+      </c>
+      <c r="D6" s="53">
+        <v>3.3696372530273702E-2</v>
+      </c>
+      <c r="E6" s="53">
+        <v>4.5134967393641902E-2</v>
+      </c>
+      <c r="F6" s="53">
+        <v>3.1749054510269999E-2</v>
+      </c>
+      <c r="G6" s="53">
+        <v>4.5690935514399102E-2</v>
+      </c>
+      <c r="H6" s="53">
+        <v>3.96256820166506E-2</v>
+      </c>
+      <c r="I6" s="53">
+        <v>7.2497890566949802E-2</v>
+      </c>
+      <c r="J6" s="54">
+        <v>3.3660673428684E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="53">
+        <v>3.3867204411141501E-2</v>
+      </c>
+      <c r="D7" s="53">
+        <v>5.0146944737261903E-2</v>
+      </c>
+      <c r="E7" s="53">
+        <v>4.14293797406389E-2</v>
+      </c>
+      <c r="F7" s="53">
+        <v>4.6628603722756803E-2</v>
+      </c>
+      <c r="G7" s="53">
+        <v>4.7013779634602203E-2</v>
+      </c>
+      <c r="H7" s="53">
+        <v>5.2287802708624397E-2</v>
+      </c>
+      <c r="I7" s="53">
+        <v>4.9505091436920903E-2</v>
+      </c>
+      <c r="J7" s="54">
+        <v>5.3788455146511899E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="55">
+        <v>4.6130885894654902E-2</v>
+      </c>
+      <c r="D8" s="55">
+        <v>6.02212308502705E-2</v>
+      </c>
+      <c r="E8" s="55">
+        <v>2.5611932141502501E-2</v>
+      </c>
+      <c r="F8" s="55">
+        <v>2.61416018775186E-2</v>
+      </c>
+      <c r="G8" s="55">
+        <v>4.04425446183184E-2</v>
+      </c>
+      <c r="H8" s="55">
+        <v>5.82854968083516E-2</v>
+      </c>
+      <c r="I8" s="55">
+        <v>5.1341086881912301E-2</v>
+      </c>
+      <c r="J8" s="56">
+        <v>2.6178369268231E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF95E80-F9D6-4C97-A976-8D8517BE58EB}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -2104,42 +2316,42 @@
       <c r="B3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="65"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
       <c r="B5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -2148,49 +2360,49 @@
       <c r="B6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="34"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B47BB03-5D51-4927-8C90-D8C37E699AAE}">
   <dimension ref="A1:J8"/>
   <sheetViews>
@@ -2244,42 +2456,42 @@
       <c r="B3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="65"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
       <c r="B5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -2288,42 +2500,42 @@
       <c r="B6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="34"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/results_analysis/ksom_motorFailure_02_hold_01.xlsx
+++ b/results_analysis/ksom_motorFailure_02_hold_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C845466-3973-4501-B882-37D7D6AE6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD1B3F8-CA4C-4EAB-8DF0-C220F90D197A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FE0D8406-1939-42F0-B5EC-F1A66084C35D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FE0D8406-1939-42F0-B5EC-F1A66084C35D}"/>
   </bookViews>
   <sheets>
     <sheet name="hp_best" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="28">
   <si>
     <t>Algorithm</t>
   </si>
@@ -106,6 +106,27 @@
   <si>
     <t>HPO = Best</t>
   </si>
+  <si>
+    <t>Comparison: HPO=Best - HPO=1</t>
+  </si>
+  <si>
+    <t>Comparison: KSOM-EF - KSOM-GD</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>HPO=1</t>
+  </si>
+  <si>
+    <t>HPO=Best</t>
+  </si>
+  <si>
+    <t>Comparison: Labeling Strategies, HPO = 1</t>
+  </si>
+  <si>
+    <t>Comparison: Labeling Strategies, HPO = best</t>
+  </si>
 </sst>
 </file>
 
@@ -131,27 +152,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -464,11 +473,233 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,24 +737,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -539,30 +752,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -605,6 +803,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,9 +818,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1BE54A-B994-4427-9FE0-504E126AE305}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -973,29 +1279,29 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="48" t="s">
+      <c r="K2" s="39"/>
+      <c r="L2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="48" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="50"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -1004,87 +1310,87 @@
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="26">
         <v>256</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="27">
         <v>512</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="27">
         <v>9.765625E-4</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="27">
         <v>512</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="27">
         <v>0.2</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="27">
         <v>8</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="27">
         <v>128</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="27">
         <v>2.6</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="27">
         <v>128</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="27">
         <v>3.125E-2</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="27">
         <v>-4</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="27">
         <v>3.125E-2</v>
       </c>
       <c r="O4" s="4">
@@ -1092,229 +1398,229 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="28">
         <v>6.25E-2</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="29">
         <v>256</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="29">
         <v>0.125</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="29">
         <v>256</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="29">
         <v>0.8</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="29">
         <v>128</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="29">
         <v>16</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="29">
         <v>0.6</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="29">
         <v>0.5</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="29">
         <v>6.25E-2</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="29">
         <v>-1</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="29">
         <v>1</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="28">
         <v>4</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="29">
         <v>256</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="29">
         <v>3.90625E-3</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="29">
         <v>32</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="29">
         <v>0.2</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="29">
         <v>512</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="29">
         <v>512</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="29">
         <v>0.4</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="29">
         <v>256</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="29">
         <v>3.90625E-3</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="29">
         <v>-4</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="29">
         <v>0.25</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="30">
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="28">
         <v>256</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="29">
         <v>512</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="29">
         <v>9.765625E-4</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="29">
         <v>512</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="29">
         <v>0.2</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="29">
         <v>8</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="29">
         <v>4</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="29">
         <v>0.6</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="29">
         <v>128</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="29">
         <v>3.125E-2</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="29">
         <v>-1024</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="29">
         <v>256</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="28">
         <v>4</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="29">
         <v>512</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="29">
         <v>0.5</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="29">
         <v>16</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="29">
         <v>0.2</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="29">
         <v>4</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="29">
         <v>128</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="29">
         <v>0.4</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="29">
         <v>1</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="29">
         <v>0.5</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="29">
         <v>256</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="29">
         <v>8</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="31">
         <v>4</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="32">
         <v>128</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="32">
         <v>1.5625E-2</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="32">
         <v>4</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="32">
         <v>2.4</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="32">
         <v>32</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="32">
         <v>512</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="32">
         <v>1</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="32">
         <v>512</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="32">
         <v>6.25E-2</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="32">
         <v>-1024</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="32">
         <v>1024</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="33">
         <v>1024</v>
       </c>
     </row>
@@ -1331,9 +1637,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A889A0D-6079-4851-A2AA-AD4BB1CBB64D}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1344,18 +1652,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -1393,91 +1701,91 @@
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="42">
         <v>0.78289473684210498</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="42">
         <v>0.76315789473684204</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="42">
         <v>0.77631578947368396</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="43">
         <v>0.78947368421052599</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="42">
         <v>0.77631578947368396</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="43">
         <v>0.81578947368421095</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="43">
         <v>0.80263157894736903</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="44">
         <v>0.78289473684210498</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="45">
         <v>0.78289473684210498</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="46">
         <v>0.75657894736842102</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="45">
         <v>0.76315789473684204</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="46">
         <v>0.70394736842105299</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="46">
         <v>0.74342105263157898</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="45">
         <v>0.75657894736842102</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="46">
         <v>0.75</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="47">
         <v>0.74342105263157898</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="46">
         <v>0.75</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="45">
         <v>0.81578947368421095</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="45">
         <v>0.80921052631579005</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="46">
         <v>0.75657894736842102</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="46">
         <v>0.73684210526315796</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="46">
         <v>0.78289473684210498</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="45">
         <v>0.78947368421052599</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="47">
         <v>0.76315789473684204</v>
       </c>
     </row>
@@ -1485,108 +1793,108 @@
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="46">
         <v>0.78289473684210498</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="46">
         <v>0.76315789473684204</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="46">
         <v>0.77631578947368396</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="45">
         <v>0.78947368421052599</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="46">
         <v>0.77631578947368396</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="46">
         <v>0.78289473684210498</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="45">
         <v>0.84868421052631604</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="47">
         <v>0.78289473684210498</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="46">
         <v>0.76315789473684204</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="46">
         <v>0.76973684210526305</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="45">
         <v>0.78289473684210498</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="46">
         <v>0.77631578947368396</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="46">
         <v>0.77631578947368396</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="45">
         <v>0.78947368421052599</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="46">
         <v>0.76973684210526305</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="48">
         <v>0.81578947368421095</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="49">
         <v>0.75</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="50">
         <v>0.76973684210526305</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="49">
         <v>0.74342105263157898</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="49">
         <v>0.74342105263157898</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="49">
         <v>0.72368421052631604</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="49">
         <v>0.76315789473684204</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="50">
         <v>0.82894736842105299</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="51">
         <v>0.77631578947368396</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
@@ -1624,13 +1932,13 @@
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6">
         <v>0.79605263157894701</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="34">
         <v>0.86184210526315796</v>
       </c>
       <c r="E13" s="6">
@@ -1642,28 +1950,28 @@
       <c r="G13" s="6">
         <v>0.82236842105263197</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="34">
         <v>0.84868421052631604</v>
       </c>
       <c r="I13" s="6">
         <v>0.82894736842105299</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="35">
         <v>0.84868421052631604</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="20">
         <v>0.80921052631579005</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="20">
         <v>0.81578947368421095</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="20">
         <v>0.78947368421052599</v>
       </c>
       <c r="F14" s="8">
@@ -1684,7 +1992,7 @@
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="8">
@@ -1693,7 +2001,7 @@
       <c r="D15" s="8">
         <v>0.82894736842105299</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="20">
         <v>0.88815789473684204</v>
       </c>
       <c r="F15" s="8">
@@ -1705,10 +2013,10 @@
       <c r="H15" s="8">
         <v>0.80921052631579005</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="20">
         <v>0.84868421052631604</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="37">
         <v>0.84868421052631604</v>
       </c>
     </row>
@@ -1716,13 +2024,13 @@
       <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="20">
         <v>0.81578947368421095</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="20">
         <v>0.83552631578947401</v>
       </c>
       <c r="E16" s="8">
@@ -1737,7 +2045,7 @@
       <c r="H16" s="8">
         <v>0.80263157894736903</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="20">
         <v>0.81578947368421095</v>
       </c>
       <c r="J16" s="9">
@@ -1746,16 +2054,16 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="8">
         <v>0.78289473684210498</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="20">
         <v>0.80921052631579005</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="20">
         <v>0.80263157894736903</v>
       </c>
       <c r="F17" s="8">
@@ -1764,10 +2072,10 @@
       <c r="G17" s="8">
         <v>0.77631578947368396</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="20">
         <v>0.80921052631579005</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="20">
         <v>0.80263157894736903</v>
       </c>
       <c r="J17" s="9">
@@ -1776,10 +2084,10 @@
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="22">
         <v>0.82894736842105299</v>
       </c>
       <c r="D18" s="10">
@@ -1800,48 +2108,346 @@
       <c r="I18" s="10">
         <v>0.78947368421052599</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="21">
         <v>0.80263157894736903</v>
       </c>
     </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="55">
+        <f>C13-C4</f>
+        <v>1.3157894736842035E-2</v>
+      </c>
+      <c r="D22" s="53">
+        <f>D13-D4</f>
+        <v>9.868421052631593E-2</v>
+      </c>
+      <c r="E22" s="53">
+        <f t="shared" ref="E22:J22" si="0">E13-E4</f>
+        <v>4.6052631578948011E-2</v>
+      </c>
+      <c r="F22" s="53">
+        <f t="shared" si="0"/>
+        <v>3.9473684210526994E-2</v>
+      </c>
+      <c r="G22" s="53">
+        <f t="shared" si="0"/>
+        <v>4.6052631578948011E-2</v>
+      </c>
+      <c r="H22" s="53">
+        <f t="shared" si="0"/>
+        <v>3.2894736842105088E-2</v>
+      </c>
+      <c r="I22" s="53">
+        <f t="shared" si="0"/>
+        <v>2.6315789473683959E-2</v>
+      </c>
+      <c r="J22" s="54">
+        <f t="shared" si="0"/>
+        <v>6.5789473684211064E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="12"/>
+      <c r="B23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="55">
+        <f t="shared" ref="C23:J23" si="1">C14-C5</f>
+        <v>2.6315789473685069E-2</v>
+      </c>
+      <c r="D23" s="53">
+        <f t="shared" si="1"/>
+        <v>5.9210526315789935E-2</v>
+      </c>
+      <c r="E23" s="53">
+        <f t="shared" si="1"/>
+        <v>2.6315789473683959E-2</v>
+      </c>
+      <c r="F23" s="53">
+        <f t="shared" si="1"/>
+        <v>2.6315789473683959E-2</v>
+      </c>
+      <c r="G23" s="53">
+        <f t="shared" si="1"/>
+        <v>-1.9736842105262942E-2</v>
+      </c>
+      <c r="H23" s="53">
+        <f t="shared" si="1"/>
+        <v>1.3157894736842035E-2</v>
+      </c>
+      <c r="I23" s="53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12"/>
+      <c r="B24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="55">
+        <f t="shared" ref="C24:J24" si="2">C15-C6</f>
+        <v>3.9473684210525994E-2</v>
+      </c>
+      <c r="D24" s="53">
+        <f t="shared" si="2"/>
+        <v>1.3157894736842035E-2</v>
+      </c>
+      <c r="E24" s="53">
+        <f t="shared" si="2"/>
+        <v>7.8947368421051989E-2</v>
+      </c>
+      <c r="F24" s="53">
+        <f t="shared" si="2"/>
+        <v>-1.9736842105263053E-2</v>
+      </c>
+      <c r="G24" s="53">
+        <f t="shared" si="2"/>
+        <v>3.2894736842105088E-2</v>
+      </c>
+      <c r="H24" s="53">
+        <f t="shared" si="2"/>
+        <v>2.6315789473685069E-2</v>
+      </c>
+      <c r="I24" s="53">
+        <f t="shared" si="2"/>
+        <v>5.9210526315790046E-2</v>
+      </c>
+      <c r="J24" s="54">
+        <f t="shared" si="2"/>
+        <v>8.5526315789474006E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="55">
+        <f t="shared" ref="C25:J25" si="3">C16-C7</f>
+        <v>3.2894736842105976E-2</v>
+      </c>
+      <c r="D25" s="53">
+        <f t="shared" si="3"/>
+        <v>7.236842105263197E-2</v>
+      </c>
+      <c r="E25" s="53">
+        <f t="shared" si="3"/>
+        <v>3.2894736842106087E-2</v>
+      </c>
+      <c r="F25" s="53">
+        <f t="shared" si="3"/>
+        <v>1.9736842105264052E-2</v>
+      </c>
+      <c r="G25" s="53">
+        <f t="shared" si="3"/>
+        <v>2.6315789473685069E-2</v>
+      </c>
+      <c r="H25" s="53">
+        <f t="shared" si="3"/>
+        <v>1.9736842105264052E-2</v>
+      </c>
+      <c r="I25" s="53">
+        <f t="shared" si="3"/>
+        <v>-3.2894736842105088E-2</v>
+      </c>
+      <c r="J25" s="54">
+        <f t="shared" si="3"/>
+        <v>1.9736842105264052E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12"/>
+      <c r="B26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="55">
+        <f t="shared" ref="C26:J26" si="4">C17-C8</f>
+        <v>1.9736842105262942E-2</v>
+      </c>
+      <c r="D26" s="53">
+        <f t="shared" si="4"/>
+        <v>3.9473684210526994E-2</v>
+      </c>
+      <c r="E26" s="53">
+        <f t="shared" si="4"/>
+        <v>1.9736842105264052E-2</v>
+      </c>
+      <c r="F26" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="53">
+        <f t="shared" si="4"/>
+        <v>1.9736842105264052E-2</v>
+      </c>
+      <c r="I26" s="53">
+        <f t="shared" si="4"/>
+        <v>3.2894736842105976E-2</v>
+      </c>
+      <c r="J26" s="54">
+        <f t="shared" si="4"/>
+        <v>-1.9736842105263941E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
+      <c r="B27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="56">
+        <f t="shared" ref="C27:J27" si="5">C18-C9</f>
+        <v>7.8947368421052988E-2</v>
+      </c>
+      <c r="D27" s="57">
+        <f t="shared" si="5"/>
+        <v>1.9736842105262942E-2</v>
+      </c>
+      <c r="E27" s="57">
+        <f t="shared" si="5"/>
+        <v>4.6052631578947012E-2</v>
+      </c>
+      <c r="F27" s="57">
+        <f t="shared" si="5"/>
+        <v>4.6052631578947012E-2</v>
+      </c>
+      <c r="G27" s="57">
+        <f t="shared" si="5"/>
+        <v>6.5789473684209954E-2</v>
+      </c>
+      <c r="H27" s="57">
+        <f t="shared" si="5"/>
+        <v>3.2894736842104977E-2</v>
+      </c>
+      <c r="I27" s="57">
+        <f t="shared" si="5"/>
+        <v>-3.9473684210526994E-2</v>
+      </c>
+      <c r="J27" s="58">
+        <f t="shared" si="5"/>
+        <v>2.6315789473685069E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A20:J20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C2E4AB-28B4-4560-9CA9-8AF5549FD7E4}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
+      <c r="L2" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="40"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -1872,207 +2478,469 @@
       <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="42">
         <v>0.73552631578947403</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="42">
         <v>0.73223684210526296</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="42">
         <v>0.73355263157894701</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="43">
         <v>0.75592105263157905</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="42">
         <v>0.73684210526315796</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="43">
         <v>0.740789473684211</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="42">
         <v>0.73223684210526296</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="52">
         <v>0.74605263157894697</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="66">
+        <f>C4-C7</f>
+        <v>6.5789473684207955E-4</v>
+      </c>
+      <c r="O4" s="66">
+        <f t="shared" ref="O4:U4" si="0">D4-D7</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="66">
+        <f t="shared" si="0"/>
+        <v>1.1184210526315019E-2</v>
+      </c>
+      <c r="Q4" s="66">
+        <f t="shared" si="0"/>
+        <v>1.1184210526316019E-2</v>
+      </c>
+      <c r="R4" s="66">
+        <f t="shared" si="0"/>
+        <v>1.1184210526316019E-2</v>
+      </c>
+      <c r="S4" s="66">
+        <f t="shared" si="0"/>
+        <v>2.039473684210602E-2</v>
+      </c>
+      <c r="T4" s="66">
+        <f t="shared" si="0"/>
+        <v>-3.9473684210530324E-3</v>
+      </c>
+      <c r="U4" s="74">
+        <f t="shared" si="0"/>
+        <v>1.7105263157893957E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="45">
         <v>0.69671052631579</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="45">
         <v>0.69868421052631602</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="45">
         <v>0.72960526315789498</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="46">
         <v>0.64276315789473704</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="46">
         <v>0.67631578947368398</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="46">
         <v>0.68157894736842095</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="46">
         <v>0.62105263157894697</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="47">
         <v>0.65657894736842104</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="12"/>
+      <c r="M5" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="66">
+        <f t="shared" ref="N5:N6" si="1">C5-C8</f>
+        <v>-1.0526315789473051E-2</v>
+      </c>
+      <c r="O5" s="66">
+        <f t="shared" ref="O5:U5" si="2">D5-D8</f>
+        <v>1.9736842105270158E-3</v>
+      </c>
+      <c r="P5" s="66">
+        <f t="shared" si="2"/>
+        <v>1.8421052631579005E-2</v>
+      </c>
+      <c r="Q5" s="66">
+        <f t="shared" si="2"/>
+        <v>-7.8947368421052988E-2</v>
+      </c>
+      <c r="R5" s="66">
+        <f t="shared" si="2"/>
+        <v>-2.8947368421053055E-2</v>
+      </c>
+      <c r="S5" s="66">
+        <f t="shared" si="2"/>
+        <v>-1.9078947368421084E-2</v>
+      </c>
+      <c r="T5" s="66">
+        <f t="shared" si="2"/>
+        <v>-6.4473684210527016E-2</v>
+      </c>
+      <c r="U5" s="74">
+        <f t="shared" si="2"/>
+        <v>-5.2631578947368918E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="46">
         <v>0.69407894736842102</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="45">
         <v>0.72302631578947396</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="45">
         <v>0.71776315789473699</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="45">
         <v>0.73355263157894801</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="46">
         <v>0.70394736842105299</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="45">
         <v>0.71842105263157896</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="46">
         <v>0.70197368421052597</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="47">
         <v>0.69934210526315799</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6" s="12"/>
+      <c r="M6" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="66">
+        <f t="shared" ref="O6:U6" si="3">D6-D9</f>
+        <v>2.7631578947369007E-2</v>
+      </c>
+      <c r="P6" s="66">
+        <f t="shared" si="3"/>
+        <v>4.605263157895001E-3</v>
+      </c>
+      <c r="Q6" s="66">
+        <f t="shared" si="3"/>
+        <v>3.1578947368422039E-2</v>
+      </c>
+      <c r="R6" s="66">
+        <f t="shared" si="3"/>
+        <v>2.1710526315789958E-2</v>
+      </c>
+      <c r="S6" s="66">
+        <f t="shared" si="3"/>
+        <v>2.3684210526315974E-2</v>
+      </c>
+      <c r="T6" s="66">
+        <f t="shared" si="3"/>
+        <v>-2.3684210526315974E-2</v>
+      </c>
+      <c r="U6" s="74">
+        <f t="shared" si="3"/>
+        <v>-3.4210526315790024E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="45">
         <v>0.73486842105263195</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="46">
         <v>0.73223684210526296</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="46">
         <v>0.72236842105263199</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="45">
         <v>0.74473684210526303</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="46">
         <v>0.72565789473684195</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="46">
         <v>0.72039473684210498</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="45">
         <v>0.736184210526316</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="47">
         <v>0.72894736842105301</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="69">
+        <f>C13-C16</f>
+        <v>1.1184210526319349E-3</v>
+      </c>
+      <c r="O7" s="69">
+        <f t="shared" ref="O7:U7" si="4">D13-D16</f>
+        <v>4.3026315789474023E-2</v>
+      </c>
+      <c r="P7" s="69">
+        <f t="shared" si="4"/>
+        <v>1.8223684210526003E-2</v>
+      </c>
+      <c r="Q7" s="69">
+        <f t="shared" si="4"/>
+        <v>-9.8026315789470075E-3</v>
+      </c>
+      <c r="R7" s="69">
+        <f t="shared" si="4"/>
+        <v>2.4671052631578982E-2</v>
+      </c>
+      <c r="S7" s="69">
+        <f t="shared" si="4"/>
+        <v>3.6315789473684079E-2</v>
+      </c>
+      <c r="T7" s="69">
+        <f t="shared" si="4"/>
+        <v>2.5657894736841991E-2</v>
+      </c>
+      <c r="U7" s="69">
+        <f t="shared" si="4"/>
+        <v>3.0065789473685101E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="46">
         <v>0.70723684210526305</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="46">
         <v>0.696710526315789</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="45">
         <v>0.71118421052631597</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="45">
         <v>0.72171052631579002</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="46">
         <v>0.70526315789473704</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="46">
         <v>0.70065789473684204</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="46">
         <v>0.68552631578947398</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="48">
         <v>0.70921052631578996</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="12"/>
+      <c r="M8" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="69">
+        <f t="shared" ref="N8:N9" si="5">C14-C17</f>
+        <v>-4.1447368421060338E-3</v>
+      </c>
+      <c r="O8" s="69">
+        <f t="shared" ref="O8:U8" si="6">D14-D17</f>
+        <v>2.5723684210526065E-2</v>
+      </c>
+      <c r="P8" s="69">
+        <f t="shared" si="6"/>
+        <v>5.7236842105259367E-3</v>
+      </c>
+      <c r="Q8" s="69">
+        <f t="shared" si="6"/>
+        <v>4.2697368421052984E-2</v>
+      </c>
+      <c r="R8" s="69">
+        <f t="shared" si="6"/>
+        <v>-6.3815789473683937E-2</v>
+      </c>
+      <c r="S8" s="69">
+        <f t="shared" si="6"/>
+        <v>-4.5789473684209936E-2</v>
+      </c>
+      <c r="T8" s="69">
+        <f t="shared" si="6"/>
+        <v>-2.9407894736842022E-2</v>
+      </c>
+      <c r="U8" s="69">
+        <f t="shared" si="6"/>
+        <v>-5.6381578947368061E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="49">
         <v>0.69407894736842102</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="49">
         <v>0.69539473684210495</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="50">
         <v>0.71315789473684199</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="49">
         <v>0.70197368421052597</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="49">
         <v>0.68223684210526303</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="49">
         <v>0.69473684210526299</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="50">
         <v>0.72565789473684195</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="51">
         <v>0.73355263157894801</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
+      <c r="L9" s="13"/>
+      <c r="M9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="69">
+        <f t="shared" si="5"/>
+        <v>-2.6973684210519489E-3</v>
+      </c>
+      <c r="O9" s="69">
+        <f t="shared" ref="O9:U9" si="7">D15-D18</f>
+        <v>5.8486842105263004E-2</v>
+      </c>
+      <c r="P9" s="69">
+        <f t="shared" si="7"/>
+        <v>8.2236842105262942E-2</v>
+      </c>
+      <c r="Q9" s="69">
+        <f t="shared" si="7"/>
+        <v>-2.1710526315789958E-2</v>
+      </c>
+      <c r="R9" s="69">
+        <f t="shared" si="7"/>
+        <v>5.657894736842084E-3</v>
+      </c>
+      <c r="S9" s="69">
+        <f t="shared" si="7"/>
+        <v>2.9868421052631988E-2</v>
+      </c>
+      <c r="T9" s="69">
+        <f t="shared" si="7"/>
+        <v>7.1907894736842004E-2</v>
+      </c>
+      <c r="U9" s="69">
+        <f t="shared" si="7"/>
+        <v>-3.4210526315789913E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+      <c r="L11" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="40"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>0</v>
       </c>
@@ -2103,18 +2971,48 @@
       <c r="J12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6">
         <v>0.73624999999999996</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="34">
         <v>0.77756578947368404</v>
       </c>
       <c r="E13" s="6">
@@ -2126,28 +3024,66 @@
       <c r="G13" s="6">
         <v>0.75565789473684197</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="34">
         <v>0.76815789473684204</v>
       </c>
       <c r="I13" s="6">
         <v>0.75256578947368402</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="35">
         <v>0.76111842105263205</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="75">
+        <f>C4-MAX(C4:C6)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="76">
+        <f>D4-MAX(D4:D6)</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="76">
+        <f>E4-MAX(E4:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="76">
+        <f>F4-MAX(F4:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="76">
+        <f>G4-MAX(G4:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="76">
+        <f>H4-MAX(H4:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="76">
+        <f>I4-MAX(I4:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="77">
+        <f>J4-MAX(J4:J6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="20">
         <v>0.69888157894736802</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="20">
         <v>0.73875000000000002</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="20">
         <v>0.71723684210526295</v>
       </c>
       <c r="F14" s="8">
@@ -2165,19 +3101,55 @@
       <c r="J14" s="9">
         <v>0.65868421052631598</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="12"/>
+      <c r="M14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="78">
+        <f>C5-MAX(C4:C6)</f>
+        <v>-3.8815789473684026E-2</v>
+      </c>
+      <c r="O14" s="79">
+        <f>D5-MAX(D4:D6)</f>
+        <v>-3.3552631578946945E-2</v>
+      </c>
+      <c r="P14" s="79">
+        <f>E5-MAX(E4:E6)</f>
+        <v>-3.9473684210520332E-3</v>
+      </c>
+      <c r="Q14" s="79">
+        <f>F5-MAX(F4:F6)</f>
+        <v>-0.11315789473684201</v>
+      </c>
+      <c r="R14" s="79">
+        <f>G5-MAX(G4:G6)</f>
+        <v>-6.0526315789473983E-2</v>
+      </c>
+      <c r="S14" s="79">
+        <f>H5-MAX(H4:H6)</f>
+        <v>-5.9210526315790046E-2</v>
+      </c>
+      <c r="T14" s="79">
+        <f>I5-MAX(I4:I6)</f>
+        <v>-0.111184210526316</v>
+      </c>
+      <c r="U14" s="80">
+        <f>J5-MAX(J4:J6)</f>
+        <v>-8.9473684210525928E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="8">
         <v>0.69585526315789503</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="20">
         <v>0.75868421052631596</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="20">
         <v>0.77868421052631598</v>
       </c>
       <c r="F15" s="8">
@@ -2189,30 +3161,66 @@
       <c r="H15" s="8">
         <v>0.73144736842105296</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="20">
         <v>0.77401315789473701</v>
       </c>
       <c r="J15" s="9">
         <v>0.69750000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L15" s="12"/>
+      <c r="M15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="78">
+        <f>C6-MAX(C4:C6)</f>
+        <v>-4.144736842105301E-2</v>
+      </c>
+      <c r="O15" s="79">
+        <f t="shared" ref="O15:U15" si="8">D6-MAX(D4:D6)</f>
+        <v>-9.2105263157890027E-3</v>
+      </c>
+      <c r="P15" s="79">
+        <f t="shared" si="8"/>
+        <v>-1.578947368421002E-2</v>
+      </c>
+      <c r="Q15" s="79">
+        <f t="shared" si="8"/>
+        <v>-2.2368421052631038E-2</v>
+      </c>
+      <c r="R15" s="79">
+        <f t="shared" si="8"/>
+        <v>-3.2894736842104977E-2</v>
+      </c>
+      <c r="S15" s="79">
+        <f t="shared" si="8"/>
+        <v>-2.2368421052632037E-2</v>
+      </c>
+      <c r="T15" s="79">
+        <f t="shared" si="8"/>
+        <v>-3.0263157894736992E-2</v>
+      </c>
+      <c r="U15" s="80">
+        <f t="shared" si="8"/>
+        <v>-4.6710526315788981E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="20">
         <v>0.73513157894736803</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="20">
         <v>0.73453947368421002</v>
       </c>
       <c r="E16" s="8">
         <v>0.72611842105263202</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="20">
         <v>0.740592105263158</v>
       </c>
       <c r="G16" s="8">
@@ -2227,19 +3235,57 @@
       <c r="J16" s="9">
         <v>0.73105263157894695</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="78">
+        <f>C7-MAX(C7:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="79">
+        <f t="shared" ref="O16:U16" si="9">D7-MAX(D7:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="80">
+        <f t="shared" si="9"/>
+        <v>-4.605263157895001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="8">
         <v>0.70302631578947405</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="20">
         <v>0.71302631578947395</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="20">
         <v>0.71151315789473701</v>
       </c>
       <c r="F17" s="8">
@@ -2254,13 +3300,49 @@
       <c r="I17" s="8">
         <v>0.70598684210526297</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="37">
         <v>0.71506578947368404</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="12"/>
+      <c r="M17" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="78">
+        <f>C8-MAX(C7:C9)</f>
+        <v>-2.7631578947368896E-2</v>
+      </c>
+      <c r="O17" s="79">
+        <f t="shared" ref="O17:U17" si="10">D8-MAX(D7:D9)</f>
+        <v>-3.5526315789473961E-2</v>
+      </c>
+      <c r="P17" s="79">
+        <f t="shared" si="10"/>
+        <v>-1.1184210526316019E-2</v>
+      </c>
+      <c r="Q17" s="79">
+        <f t="shared" si="10"/>
+        <v>-2.3026315789473006E-2</v>
+      </c>
+      <c r="R17" s="79">
+        <f t="shared" si="10"/>
+        <v>-2.039473684210491E-2</v>
+      </c>
+      <c r="S17" s="79">
+        <f t="shared" si="10"/>
+        <v>-1.9736842105262942E-2</v>
+      </c>
+      <c r="T17" s="79">
+        <f t="shared" si="10"/>
+        <v>-5.0657894736842013E-2</v>
+      </c>
+      <c r="U17" s="80">
+        <f t="shared" si="10"/>
+        <v>-2.4342105263158054E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="10">
@@ -2275,23 +3357,604 @@
       <c r="F18" s="10">
         <v>0.68559210526315795</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="22">
         <v>0.70078947368421096</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="22">
         <v>0.70157894736842097</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="22">
         <v>0.70210526315789501</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="21">
         <v>0.700921052631579</v>
       </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="81">
+        <f>C9-MAX(C7:C9)</f>
+        <v>-4.0789473684210931E-2</v>
+      </c>
+      <c r="O18" s="82">
+        <f t="shared" ref="O18:U18" si="11">D9-MAX(D7:D9)</f>
+        <v>-3.6842105263158009E-2</v>
+      </c>
+      <c r="P18" s="82">
+        <f t="shared" si="11"/>
+        <v>-9.2105263157900019E-3</v>
+      </c>
+      <c r="Q18" s="82">
+        <f t="shared" si="11"/>
+        <v>-4.2763157894737058E-2</v>
+      </c>
+      <c r="R18" s="82">
+        <f t="shared" si="11"/>
+        <v>-4.3421052631578916E-2</v>
+      </c>
+      <c r="S18" s="82">
+        <f t="shared" si="11"/>
+        <v>-2.5657894736841991E-2</v>
+      </c>
+      <c r="T18" s="82">
+        <f t="shared" si="11"/>
+        <v>-1.052631578947405E-2</v>
+      </c>
+      <c r="U18" s="83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="L20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="40"/>
+    </row>
+    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="66">
+        <f>C13-C4</f>
+        <v>7.2368421052593224E-4</v>
+      </c>
+      <c r="D22" s="67">
+        <f>D13-D4</f>
+        <v>4.532894736842108E-2</v>
+      </c>
+      <c r="E22" s="67">
+        <f t="shared" ref="E22:J22" si="12">E13-E4</f>
+        <v>1.0789473684211015E-2</v>
+      </c>
+      <c r="F22" s="67">
+        <f t="shared" si="12"/>
+        <v>-2.5131578947368061E-2</v>
+      </c>
+      <c r="G22" s="67">
+        <f t="shared" si="12"/>
+        <v>1.8815789473684008E-2</v>
+      </c>
+      <c r="H22" s="67">
+        <f t="shared" si="12"/>
+        <v>2.7368421052631042E-2</v>
+      </c>
+      <c r="I22" s="67">
+        <f t="shared" si="12"/>
+        <v>2.0328947368421058E-2</v>
+      </c>
+      <c r="J22" s="68">
+        <f t="shared" si="12"/>
+        <v>1.5065789473685087E-2</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="75">
+        <f>C13-MAX(C13:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="76">
+        <f t="shared" ref="O22:U22" si="13">D13-MAX(D13:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="76">
+        <f t="shared" si="13"/>
+        <v>-3.4342105263157952E-2</v>
+      </c>
+      <c r="Q22" s="76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="76">
+        <f t="shared" si="13"/>
+        <v>-2.1447368421052992E-2</v>
+      </c>
+      <c r="U22" s="77">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="69">
+        <f t="shared" ref="C23:J27" si="14">C14-C5</f>
+        <v>2.1710526315780188E-3</v>
+      </c>
+      <c r="D23" s="65">
+        <f t="shared" si="14"/>
+        <v>4.0065789473683999E-2</v>
+      </c>
+      <c r="E23" s="65">
+        <f t="shared" si="14"/>
+        <v>-1.2368421052632028E-2</v>
+      </c>
+      <c r="F23" s="65">
+        <f t="shared" si="14"/>
+        <v>2.2105263157894961E-2</v>
+      </c>
+      <c r="G23" s="65">
+        <f t="shared" si="14"/>
+        <v>-3.1710526315788967E-2</v>
+      </c>
+      <c r="H23" s="65">
+        <f t="shared" si="14"/>
+        <v>-2.2565789473683928E-2</v>
+      </c>
+      <c r="I23" s="65">
+        <f t="shared" si="14"/>
+        <v>5.5526315789473979E-2</v>
+      </c>
+      <c r="J23" s="70">
+        <f t="shared" si="14"/>
+        <v>2.1052631578949432E-3</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="78">
+        <f>C14-MAX(C13:C15)</f>
+        <v>-3.7368421052631939E-2</v>
+      </c>
+      <c r="O23" s="79">
+        <f t="shared" ref="O23:U23" si="15">D14-MAX(D13:D15)</f>
+        <v>-3.8815789473684026E-2</v>
+      </c>
+      <c r="P23" s="79">
+        <f t="shared" si="15"/>
+        <v>-6.1447368421053028E-2</v>
+      </c>
+      <c r="Q23" s="79">
+        <f t="shared" si="15"/>
+        <v>-6.5921052631578991E-2</v>
+      </c>
+      <c r="R23" s="79">
+        <f t="shared" si="15"/>
+        <v>-0.11105263157894696</v>
+      </c>
+      <c r="S23" s="79">
+        <f t="shared" si="15"/>
+        <v>-0.10914473684210502</v>
+      </c>
+      <c r="T23" s="79">
+        <f t="shared" si="15"/>
+        <v>-9.7434210526316067E-2</v>
+      </c>
+      <c r="U23" s="80">
+        <f t="shared" si="15"/>
+        <v>-0.10243421052631607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12"/>
+      <c r="B24" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="69">
+        <f t="shared" si="14"/>
+        <v>1.7763157894740145E-3</v>
+      </c>
+      <c r="D24" s="65">
+        <f t="shared" si="14"/>
+        <v>3.5657894736842E-2</v>
+      </c>
+      <c r="E24" s="65">
+        <f t="shared" si="14"/>
+        <v>6.0921052631578987E-2</v>
+      </c>
+      <c r="F24" s="65">
+        <f t="shared" si="14"/>
+        <v>-6.9671052631580022E-2</v>
+      </c>
+      <c r="G24" s="65">
+        <f t="shared" si="14"/>
+        <v>2.5000000000000577E-3</v>
+      </c>
+      <c r="H24" s="65">
+        <f t="shared" si="14"/>
+        <v>1.3026315789473997E-2</v>
+      </c>
+      <c r="I24" s="65">
+        <f t="shared" si="14"/>
+        <v>7.2039473684211042E-2</v>
+      </c>
+      <c r="J24" s="70">
+        <f t="shared" si="14"/>
+        <v>-1.8421052631579782E-3</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="78">
+        <f>C15-MAX(C13:C15)</f>
+        <v>-4.0394736842104928E-2</v>
+      </c>
+      <c r="O24" s="79">
+        <f t="shared" ref="O24:U24" si="16">D15-MAX(D13:D15)</f>
+        <v>-1.8881578947368083E-2</v>
+      </c>
+      <c r="P24" s="79">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="79">
+        <f t="shared" si="16"/>
+        <v>-6.6907894736842999E-2</v>
+      </c>
+      <c r="R24" s="79">
+        <f t="shared" si="16"/>
+        <v>-4.9210526315788927E-2</v>
+      </c>
+      <c r="S24" s="79">
+        <f t="shared" si="16"/>
+        <v>-3.6710526315789083E-2</v>
+      </c>
+      <c r="T24" s="79">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="80">
+        <f t="shared" si="16"/>
+        <v>-6.3618421052632046E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="69">
+        <f t="shared" si="14"/>
+        <v>2.6315789473607687E-4</v>
+      </c>
+      <c r="D25" s="65">
+        <f t="shared" si="14"/>
+        <v>2.3026315789470564E-3</v>
+      </c>
+      <c r="E25" s="65">
+        <f t="shared" si="14"/>
+        <v>3.7500000000000311E-3</v>
+      </c>
+      <c r="F25" s="65">
+        <f t="shared" si="14"/>
+        <v>-4.1447368421050346E-3</v>
+      </c>
+      <c r="G25" s="65">
+        <f t="shared" si="14"/>
+        <v>5.3289473684210442E-3</v>
+      </c>
+      <c r="H25" s="65">
+        <f t="shared" si="14"/>
+        <v>1.1447368421052984E-2</v>
+      </c>
+      <c r="I25" s="65">
+        <f t="shared" si="14"/>
+        <v>-9.2763157894739656E-3</v>
+      </c>
+      <c r="J25" s="70">
+        <f t="shared" si="14"/>
+        <v>2.105263157893944E-3</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="78">
+        <f>C16-MAX(C16:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="79">
+        <f t="shared" ref="O25:U25" si="17">D16-MAX(D16:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="79">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="79">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="79">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="79">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="79">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="80">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="69">
+        <f t="shared" si="14"/>
+        <v>-4.2105263157889983E-3</v>
+      </c>
+      <c r="D26" s="65">
+        <f t="shared" si="14"/>
+        <v>1.631578947368495E-2</v>
+      </c>
+      <c r="E26" s="65">
+        <f t="shared" si="14"/>
+        <v>3.2894736842103978E-4</v>
+      </c>
+      <c r="F26" s="65">
+        <f t="shared" si="14"/>
+        <v>-9.9539473684211011E-2</v>
+      </c>
+      <c r="G26" s="65">
+        <f t="shared" si="14"/>
+        <v>3.1578947368419152E-3</v>
+      </c>
+      <c r="H26" s="65">
+        <f t="shared" si="14"/>
+        <v>4.1447368421049235E-3</v>
+      </c>
+      <c r="I26" s="65">
+        <f t="shared" si="14"/>
+        <v>2.0460526315788985E-2</v>
+      </c>
+      <c r="J26" s="70">
+        <f t="shared" si="14"/>
+        <v>5.8552631578940861E-3</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="78">
+        <f>C17-MAX(C16:C18)</f>
+        <v>-3.2105263157893971E-2</v>
+      </c>
+      <c r="O26" s="79">
+        <f t="shared" ref="O26:U26" si="18">D17-MAX(D16:D18)</f>
+        <v>-2.1513157894736068E-2</v>
+      </c>
+      <c r="P26" s="79">
+        <f t="shared" si="18"/>
+        <v>-1.460526315789501E-2</v>
+      </c>
+      <c r="Q26" s="79">
+        <f t="shared" si="18"/>
+        <v>-0.11842105263157898</v>
+      </c>
+      <c r="R26" s="79">
+        <f t="shared" si="18"/>
+        <v>-2.2565789473684039E-2</v>
+      </c>
+      <c r="S26" s="79">
+        <f t="shared" si="18"/>
+        <v>-2.7039473684211002E-2</v>
+      </c>
+      <c r="T26" s="79">
+        <f t="shared" si="18"/>
+        <v>-2.0921052631579062E-2</v>
+      </c>
+      <c r="U26" s="80">
+        <f t="shared" si="18"/>
+        <v>-1.5986842105262911E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
+      <c r="B27" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="71">
+        <f t="shared" si="14"/>
+        <v>4.4736842105259633E-3</v>
+      </c>
+      <c r="D27" s="72">
+        <f t="shared" si="14"/>
+        <v>4.8026315789480023E-3</v>
+      </c>
+      <c r="E27" s="72">
+        <f t="shared" si="14"/>
+        <v>-1.6710526315788954E-2</v>
+      </c>
+      <c r="F27" s="72">
+        <f t="shared" si="14"/>
+        <v>-1.6381578947368025E-2</v>
+      </c>
+      <c r="G27" s="72">
+        <f t="shared" si="14"/>
+        <v>1.8552631578947931E-2</v>
+      </c>
+      <c r="H27" s="72">
+        <f t="shared" si="14"/>
+        <v>6.8421052631579826E-3</v>
+      </c>
+      <c r="I27" s="72">
+        <f t="shared" si="14"/>
+        <v>-2.3552631578946936E-2</v>
+      </c>
+      <c r="J27" s="73">
+        <f t="shared" si="14"/>
+        <v>-3.2631578947369011E-2</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="81">
+        <f>C18-MAX(C16:C18)</f>
+        <v>-3.6578947368421044E-2</v>
+      </c>
+      <c r="O27" s="82">
+        <f t="shared" ref="O27:U27" si="19">D18-MAX(D16:D18)</f>
+        <v>-3.4342105263157063E-2</v>
+      </c>
+      <c r="P27" s="82">
+        <f t="shared" si="19"/>
+        <v>-2.9671052631578987E-2</v>
+      </c>
+      <c r="Q27" s="82">
+        <f t="shared" si="19"/>
+        <v>-5.5000000000000049E-2</v>
+      </c>
+      <c r="R27" s="82">
+        <f t="shared" si="19"/>
+        <v>-3.0197368421052029E-2</v>
+      </c>
+      <c r="S27" s="82">
+        <f t="shared" si="19"/>
+        <v>-3.0263157894736992E-2</v>
+      </c>
+      <c r="T27" s="82">
+        <f t="shared" si="19"/>
+        <v>-2.4802631578947021E-2</v>
+      </c>
+      <c r="U27" s="83">
+        <f t="shared" si="19"/>
+        <v>-3.0131578947367954E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="L11:U11"/>
+    <mergeCell ref="L20:U20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2299,10 +3962,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C1C768-E5FF-4F1E-85F6-B83F97AC222C}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2313,18 +3976,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -2359,203 +4022,203 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="43">
         <v>0.74013157894736803</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="42">
         <v>0.73684210526315796</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="42">
         <v>0.73684210526315796</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="43">
         <v>0.75</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="42">
         <v>0.73355263157894701</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="42">
         <v>0.73684210526315796</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="42">
         <v>0.72697368421052599</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="52">
         <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="45">
         <v>0.69078947368421095</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="45">
         <v>0.69407894736842102</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="45">
         <v>0.73026315789473695</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="46">
         <v>0.64473684210526305</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="46">
         <v>0.67763157894736903</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="45">
         <v>0.69078947368421095</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="46">
         <v>0.68092105263157898</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="47">
         <v>0.64473684210526305</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="46">
         <v>0.69736842105263197</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="45">
         <v>0.72039473684210498</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="46">
         <v>0.71710526315789502</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="45">
         <v>0.73684210526315796</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="46">
         <v>0.71052631578947401</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="45">
         <v>0.72039473684210498</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="46">
         <v>0.70065789473684204</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="47">
         <v>0.70723684210526305</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="45">
         <v>0.74013157894736803</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="45">
         <v>0.73684210526315796</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="45">
         <v>0.73684210526315796</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="45">
         <v>0.75</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="46">
         <v>0.72368421052631604</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="46">
         <v>0.71052631578947401</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="46">
         <v>0.73355263157894701</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="47">
         <v>0.73026315789473695</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="45">
         <v>0.70723684210526305</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="45">
         <v>0.70723684210526305</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="46">
         <v>0.70394736842105299</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="45">
         <v>0.74013157894736803</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="46">
         <v>0.70723684210526305</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="46">
         <v>0.69407894736842102</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="46">
         <v>0.69736842105263197</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="47">
         <v>0.69736842105263197</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="49">
         <v>0.69736842105263197</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="49">
         <v>0.70394736842105299</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="50">
         <v>0.72039473684210498</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="49">
         <v>0.69736842105263197</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="49">
         <v>0.70065789473684204</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="49">
         <v>0.70723684210526305</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="50">
         <v>0.72039473684210498</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="51">
         <v>0.73026315789473695</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
@@ -2590,16 +4253,16 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6">
         <v>0.73355263157894701</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="34">
         <v>0.77631578947368396</v>
       </c>
       <c r="E13" s="6">
@@ -2611,28 +4274,28 @@
       <c r="G13" s="6">
         <v>0.75657894736842102</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="34">
         <v>0.76973684210526305</v>
       </c>
       <c r="I13" s="6">
         <v>0.75657894736842102</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="35">
         <v>0.76315789473684204</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="20">
         <v>0.69736842105263197</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="20">
         <v>0.74013157894736803</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="20">
         <v>0.71710526315789502</v>
       </c>
       <c r="F14" s="8">
@@ -2652,17 +4315,17 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="8">
         <v>0.69078947368421095</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="20">
         <v>0.75657894736842102</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="20">
         <v>0.78289473684210498</v>
       </c>
       <c r="F15" s="8">
@@ -2674,7 +4337,7 @@
       <c r="H15" s="8">
         <v>0.73684210526315796</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="20">
         <v>0.77631578947368396</v>
       </c>
       <c r="J15" s="9">
@@ -2682,13 +4345,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="20">
         <v>0.74342105263157898</v>
       </c>
       <c r="D16" s="8">
@@ -2697,13 +4360,13 @@
       <c r="E16" s="8">
         <v>0.72368421052631604</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="20">
         <v>0.74342105263157898</v>
       </c>
       <c r="G16" s="8">
         <v>0.73026315789473695</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="20">
         <v>0.73684210526315796</v>
       </c>
       <c r="I16" s="8">
@@ -2715,22 +4378,22 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="8">
         <v>0.70394736842105299</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="20">
         <v>0.71710526315789502</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="20">
         <v>0.71052631578947401</v>
       </c>
       <c r="F17" s="8">
         <v>0.67105263157894701</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="20">
         <v>0.71052631578947401</v>
       </c>
       <c r="H17" s="8">
@@ -2739,19 +4402,19 @@
       <c r="I17" s="8">
         <v>0.70394736842105299</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="37">
         <v>0.72039473684210498</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="10">
         <v>0.69736842105263197</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="22">
         <v>0.70394736842105299</v>
       </c>
       <c r="E18" s="10">
@@ -2760,23 +4423,303 @@
       <c r="F18" s="10">
         <v>0.69736842105263197</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="22">
         <v>0.70723684210526305</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="22">
         <v>0.70394736842105299</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="22">
         <v>0.70394736842105299</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="36">
         <v>0.69736842105263197</v>
       </c>
     </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="66">
+        <f>C13-C4</f>
+        <v>-6.5789473684210176E-3</v>
+      </c>
+      <c r="D22" s="67">
+        <f>D13-D4</f>
+        <v>3.9473684210525994E-2</v>
+      </c>
+      <c r="E22" s="67">
+        <f t="shared" ref="E22:J22" si="0">E13-E4</f>
+        <v>6.5789473684210176E-3</v>
+      </c>
+      <c r="F22" s="67">
+        <f t="shared" si="0"/>
+        <v>-1.9736842105263053E-2</v>
+      </c>
+      <c r="G22" s="67">
+        <f t="shared" si="0"/>
+        <v>2.3026315789474006E-2</v>
+      </c>
+      <c r="H22" s="67">
+        <f t="shared" si="0"/>
+        <v>3.2894736842105088E-2</v>
+      </c>
+      <c r="I22" s="67">
+        <f t="shared" si="0"/>
+        <v>2.9605263157895023E-2</v>
+      </c>
+      <c r="J22" s="68">
+        <f t="shared" si="0"/>
+        <v>1.3157894736842035E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="69">
+        <f t="shared" ref="C23:J27" si="1">C14-C5</f>
+        <v>6.5789473684210176E-3</v>
+      </c>
+      <c r="D23" s="65">
+        <f t="shared" si="1"/>
+        <v>4.6052631578947012E-2</v>
+      </c>
+      <c r="E23" s="65">
+        <f t="shared" si="1"/>
+        <v>-1.3157894736841924E-2</v>
+      </c>
+      <c r="F23" s="65">
+        <f t="shared" si="1"/>
+        <v>1.9736842105262942E-2</v>
+      </c>
+      <c r="G23" s="65">
+        <f t="shared" si="1"/>
+        <v>-2.6315789473685069E-2</v>
+      </c>
+      <c r="H23" s="65">
+        <f t="shared" si="1"/>
+        <v>-2.9605263157894912E-2</v>
+      </c>
+      <c r="I23" s="65">
+        <f t="shared" si="1"/>
+        <v>-3.2894736842099537E-3</v>
+      </c>
+      <c r="J23" s="70">
+        <f t="shared" si="1"/>
+        <v>1.9736842105262942E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12"/>
+      <c r="B24" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="69">
+        <f t="shared" si="1"/>
+        <v>-6.5789473684210176E-3</v>
+      </c>
+      <c r="D24" s="65">
+        <f t="shared" si="1"/>
+        <v>3.6184210526316041E-2</v>
+      </c>
+      <c r="E24" s="65">
+        <f t="shared" si="1"/>
+        <v>6.5789473684209954E-2</v>
+      </c>
+      <c r="F24" s="65">
+        <f t="shared" si="1"/>
+        <v>-7.5657894736841924E-2</v>
+      </c>
+      <c r="G24" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="65">
+        <f t="shared" si="1"/>
+        <v>1.6447368421052988E-2</v>
+      </c>
+      <c r="I24" s="65">
+        <f t="shared" si="1"/>
+        <v>7.5657894736841924E-2</v>
+      </c>
+      <c r="J24" s="70">
+        <f t="shared" si="1"/>
+        <v>-1.64473684210521E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="69">
+        <f t="shared" si="1"/>
+        <v>3.2894736842109529E-3</v>
+      </c>
+      <c r="D25" s="65">
+        <f t="shared" si="1"/>
+        <v>-6.5789473684210176E-3</v>
+      </c>
+      <c r="E25" s="65">
+        <f t="shared" si="1"/>
+        <v>-1.3157894736841924E-2</v>
+      </c>
+      <c r="F25" s="65">
+        <f t="shared" si="1"/>
+        <v>-6.5789473684210176E-3</v>
+      </c>
+      <c r="G25" s="65">
+        <f t="shared" si="1"/>
+        <v>6.5789473684209065E-3</v>
+      </c>
+      <c r="H25" s="65">
+        <f t="shared" si="1"/>
+        <v>2.6315789473683959E-2</v>
+      </c>
+      <c r="I25" s="65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="69">
+        <f t="shared" si="1"/>
+        <v>-3.2894736842100647E-3</v>
+      </c>
+      <c r="D26" s="65">
+        <f t="shared" si="1"/>
+        <v>9.8684210526319704E-3</v>
+      </c>
+      <c r="E26" s="65">
+        <f t="shared" si="1"/>
+        <v>6.5789473684210176E-3</v>
+      </c>
+      <c r="F26" s="65">
+        <f t="shared" si="1"/>
+        <v>-6.9078947368421018E-2</v>
+      </c>
+      <c r="G26" s="65">
+        <f t="shared" si="1"/>
+        <v>3.2894736842109529E-3</v>
+      </c>
+      <c r="H26" s="65">
+        <f t="shared" si="1"/>
+        <v>9.8684210526319704E-3</v>
+      </c>
+      <c r="I26" s="65">
+        <f t="shared" si="1"/>
+        <v>6.5789473684210176E-3</v>
+      </c>
+      <c r="J26" s="70">
+        <f t="shared" si="1"/>
+        <v>2.3026315789473006E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
+      <c r="B27" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="72">
+        <f t="shared" si="1"/>
+        <v>-2.9605263157894024E-2</v>
+      </c>
+      <c r="F27" s="72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="72">
+        <f t="shared" si="1"/>
+        <v>6.5789473684210176E-3</v>
+      </c>
+      <c r="H27" s="72">
+        <f t="shared" si="1"/>
+        <v>-3.2894736842100647E-3</v>
+      </c>
+      <c r="I27" s="72">
+        <f t="shared" si="1"/>
+        <v>-1.6447368421051989E-2</v>
+      </c>
+      <c r="J27" s="73">
+        <f t="shared" si="1"/>
+        <v>-3.2894736842104977E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A20:J20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2784,11 +4727,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3529DD2C-CC94-475B-B02F-091244A7C6A3}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2798,18 +4739,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -2844,10 +4785,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="6">
@@ -2876,8 +4817,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="8">
@@ -2906,8 +4847,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="8">
@@ -2936,10 +4877,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="8">
@@ -2969,7 +4910,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="8">
@@ -2999,7 +4940,7 @@
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="10">
@@ -3023,24 +4964,24 @@
       <c r="I9" s="10">
         <v>5.1341086881912301E-2</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="36">
         <v>2.6178369268231E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
@@ -3075,10 +5016,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6">
@@ -3107,8 +5048,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="8">
@@ -3137,8 +5078,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="8">
@@ -3167,10 +5108,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="8">
@@ -3200,7 +5141,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="8">
@@ -3230,7 +5171,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="10">
@@ -3254,14 +5195,294 @@
       <c r="I18" s="10">
         <v>3.86802230799798E-2</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="36">
         <v>4.2875929902538697E-2</v>
       </c>
     </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="66">
+        <f>C13-C4</f>
+        <v>-1.0356435969569398E-2</v>
+      </c>
+      <c r="D22" s="67">
+        <f>D13-D4</f>
+        <v>1.5243557303421945E-3</v>
+      </c>
+      <c r="E22" s="67">
+        <f t="shared" ref="E22:J22" si="0">E13-E4</f>
+        <v>5.2755884537990967E-3</v>
+      </c>
+      <c r="F22" s="67">
+        <f t="shared" si="0"/>
+        <v>1.0708599735903601E-2</v>
+      </c>
+      <c r="G22" s="67">
+        <f t="shared" si="0"/>
+        <v>1.3299533859447987E-3</v>
+      </c>
+      <c r="H22" s="67">
+        <f t="shared" si="0"/>
+        <v>-1.2825674235624702E-2</v>
+      </c>
+      <c r="I22" s="67">
+        <f t="shared" si="0"/>
+        <v>-1.2501457222670098E-2</v>
+      </c>
+      <c r="J22" s="68">
+        <f t="shared" si="0"/>
+        <v>1.3045150232247602E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="69">
+        <f t="shared" ref="C23:J27" si="1">C14-C5</f>
+        <v>-1.6003631077908947E-3</v>
+      </c>
+      <c r="D23" s="65">
+        <f t="shared" si="1"/>
+        <v>-5.4619695755213984E-3</v>
+      </c>
+      <c r="E23" s="65">
+        <f t="shared" si="1"/>
+        <v>1.8207607161416901E-2</v>
+      </c>
+      <c r="F23" s="65">
+        <f t="shared" si="1"/>
+        <v>-8.7417834803977003E-3</v>
+      </c>
+      <c r="G23" s="65">
+        <f t="shared" si="1"/>
+        <v>1.0947430459370799E-2</v>
+      </c>
+      <c r="H23" s="65">
+        <f t="shared" si="1"/>
+        <v>1.1299911228380401E-2</v>
+      </c>
+      <c r="I23" s="65">
+        <f t="shared" si="1"/>
+        <v>-0.11912011232371651</v>
+      </c>
+      <c r="J23" s="70">
+        <f t="shared" si="1"/>
+        <v>3.1556718860727972E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="12"/>
+      <c r="B24" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="69">
+        <f t="shared" si="1"/>
+        <v>-5.9344305468955055E-3</v>
+      </c>
+      <c r="D24" s="65">
+        <f t="shared" si="1"/>
+        <v>-2.0922653669962401E-2</v>
+      </c>
+      <c r="E24" s="65">
+        <f t="shared" si="1"/>
+        <v>-2.0811354966489802E-2</v>
+      </c>
+      <c r="F24" s="65">
+        <f t="shared" si="1"/>
+        <v>2.0078074470436403E-2</v>
+      </c>
+      <c r="G24" s="65">
+        <f t="shared" si="1"/>
+        <v>-5.6770502796996136E-5</v>
+      </c>
+      <c r="H24" s="65">
+        <f t="shared" si="1"/>
+        <v>-1.5874392235406057E-3</v>
+      </c>
+      <c r="I24" s="65">
+        <f t="shared" si="1"/>
+        <v>-9.0070854112849971E-3</v>
+      </c>
+      <c r="J24" s="70">
+        <f t="shared" si="1"/>
+        <v>5.9416689108182999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="69">
+        <f t="shared" si="1"/>
+        <v>1.5745204129570534E-4</v>
+      </c>
+      <c r="D25" s="65">
+        <f t="shared" si="1"/>
+        <v>3.6765666541732009E-3</v>
+      </c>
+      <c r="E25" s="65">
+        <f t="shared" si="1"/>
+        <v>-1.2531860871226E-2</v>
+      </c>
+      <c r="F25" s="65">
+        <f t="shared" si="1"/>
+        <v>-5.9136957574209767E-4</v>
+      </c>
+      <c r="G25" s="65">
+        <f t="shared" si="1"/>
+        <v>-1.2146122965789603E-2</v>
+      </c>
+      <c r="H25" s="65">
+        <f t="shared" si="1"/>
+        <v>-6.5504197999382979E-3</v>
+      </c>
+      <c r="I25" s="65">
+        <f t="shared" si="1"/>
+        <v>-3.3926157624014699E-2</v>
+      </c>
+      <c r="J25" s="70">
+        <f t="shared" si="1"/>
+        <v>-1.760632865384984E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="69">
+        <f t="shared" si="1"/>
+        <v>3.9782228523415966E-3</v>
+      </c>
+      <c r="D26" s="65">
+        <f t="shared" si="1"/>
+        <v>-1.0038413430870502E-2</v>
+      </c>
+      <c r="E26" s="65">
+        <f t="shared" si="1"/>
+        <v>-7.1691129726798031E-3</v>
+      </c>
+      <c r="F26" s="65">
+        <f t="shared" si="1"/>
+        <v>5.9421810775408201E-2</v>
+      </c>
+      <c r="G26" s="65">
+        <f t="shared" si="1"/>
+        <v>-1.1531054886337003E-2</v>
+      </c>
+      <c r="H26" s="65">
+        <f t="shared" si="1"/>
+        <v>-1.2984442100087999E-2</v>
+      </c>
+      <c r="I26" s="65">
+        <f t="shared" si="1"/>
+        <v>-1.51260972739998E-2</v>
+      </c>
+      <c r="J26" s="70">
+        <f t="shared" si="1"/>
+        <v>-1.59814584177203E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
+      <c r="B27" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="71">
+        <f t="shared" si="1"/>
+        <v>-7.4020909783722999E-3</v>
+      </c>
+      <c r="D27" s="72">
+        <f t="shared" si="1"/>
+        <v>-2.0468814712071598E-2</v>
+      </c>
+      <c r="E27" s="72">
+        <f t="shared" si="1"/>
+        <v>1.1427818335035096E-2</v>
+      </c>
+      <c r="F27" s="72">
+        <f t="shared" si="1"/>
+        <v>3.05783844805377E-2</v>
+      </c>
+      <c r="G27" s="72">
+        <f t="shared" si="1"/>
+        <v>3.0414929566989005E-3</v>
+      </c>
+      <c r="H27" s="72">
+        <f t="shared" si="1"/>
+        <v>-2.1870700610493198E-2</v>
+      </c>
+      <c r="I27" s="72">
+        <f t="shared" si="1"/>
+        <v>-1.2660863801932501E-2</v>
+      </c>
+      <c r="J27" s="73">
+        <f t="shared" si="1"/>
+        <v>1.6697560634307697E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A20:J20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3271,9 +5492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF95E80-F9D6-4C97-A976-8D8517BE58EB}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3283,18 +5502,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -3329,60 +5548,60 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="45"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="46"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="28"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="28"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="28"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="28"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3390,13 +5609,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="28"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3404,32 +5623,32 @@
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="30"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
@@ -3464,10 +5683,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6">
@@ -3496,8 +5715,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="8">
@@ -3526,8 +5745,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="8">
@@ -3556,10 +5775,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="8">
@@ -3589,7 +5808,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="8">
@@ -3619,7 +5838,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="10">
@@ -3643,7 +5862,7 @@
       <c r="I18" s="10">
         <v>0.787114845938375</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="36">
         <v>0.80094290204295404</v>
       </c>
     </row>
@@ -3660,9 +5879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B47BB03-5D51-4927-8C90-D8C37E699AAE}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3672,18 +5889,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
@@ -3718,60 +5935,60 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="45"/>
+      <c r="F4" s="34"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="46"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="28"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="8"/>
-      <c r="D6" s="28"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="28"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="28"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3779,13 +5996,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="28"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3793,32 +6010,32 @@
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="31"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="30"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
@@ -3853,10 +6070,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="6">
@@ -3885,8 +6102,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="8">
@@ -3915,8 +6132,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="8">
@@ -3945,10 +6162,10 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="8">
@@ -3978,7 +6195,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="8">
@@ -4008,7 +6225,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="10">
@@ -4032,7 +6249,7 @@
       <c r="I18" s="10">
         <v>0.57422969187675099</v>
       </c>
-      <c r="J18" s="47">
+      <c r="J18" s="36">
         <v>0.64349398368768995</v>
       </c>
     </row>
